--- a/Duncan vs Dunne 9-26-21.xlsx
+++ b/Duncan vs Dunne 9-26-21.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1abc75c8e08b2b2b/Desktop/Duncan-IH-FB-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{F99583C4-104B-433B-86EC-9F8367D1C190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A22A7B7-9B5E-4BF5-A01A-2069DBC55951}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{F99583C4-104B-433B-86EC-9F8367D1C190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81F5F7D7-5275-4006-A25A-C15BCCFD89CD}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{0B0C0C50-456C-4241-A1C6-75A3BE8AB477}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dunne" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2817,88 +2817,44 @@
     </row>
   </sheetData>
   <mergeCells count="138">
-    <mergeCell ref="I70:M70"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="I65:M65"/>
-    <mergeCell ref="I66:M66"/>
-    <mergeCell ref="I67:M67"/>
-    <mergeCell ref="I68:M68"/>
-    <mergeCell ref="I69:M69"/>
-    <mergeCell ref="I63:M63"/>
-    <mergeCell ref="I64:M64"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="I58:M58"/>
-    <mergeCell ref="I59:M59"/>
-    <mergeCell ref="I60:M60"/>
-    <mergeCell ref="I61:M61"/>
-    <mergeCell ref="I62:M62"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="I54:M54"/>
-    <mergeCell ref="I55:M55"/>
-    <mergeCell ref="I56:M56"/>
-    <mergeCell ref="I57:M57"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I49:M49"/>
-    <mergeCell ref="I50:M50"/>
-    <mergeCell ref="I51:M51"/>
-    <mergeCell ref="I52:M52"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="I48:M48"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="I43:M43"/>
-    <mergeCell ref="I44:M44"/>
-    <mergeCell ref="I45:M45"/>
-    <mergeCell ref="I46:M46"/>
-    <mergeCell ref="I47:M47"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="I38:M38"/>
-    <mergeCell ref="I39:M39"/>
-    <mergeCell ref="I40:M40"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="I42:M42"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="I35:M35"/>
-    <mergeCell ref="I36:M36"/>
-    <mergeCell ref="I37:M37"/>
-    <mergeCell ref="I34:M34"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="I30:M30"/>
-    <mergeCell ref="I31:M31"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="I33:M33"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="I27:M27"/>
@@ -2917,44 +2873,88 @@
     <mergeCell ref="I22:M22"/>
     <mergeCell ref="I23:M23"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="I33:M33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="I37:M37"/>
+    <mergeCell ref="I34:M34"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="I38:M38"/>
+    <mergeCell ref="I39:M39"/>
+    <mergeCell ref="I40:M40"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="I43:M43"/>
+    <mergeCell ref="I44:M44"/>
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="I51:M51"/>
+    <mergeCell ref="I52:M52"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="I48:M48"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="I54:M54"/>
+    <mergeCell ref="I55:M55"/>
+    <mergeCell ref="I56:M56"/>
+    <mergeCell ref="I57:M57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I58:M58"/>
+    <mergeCell ref="I59:M59"/>
+    <mergeCell ref="I60:M60"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="I62:M62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="I70:M70"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="I65:M65"/>
+    <mergeCell ref="I66:M66"/>
+    <mergeCell ref="I67:M67"/>
+    <mergeCell ref="I68:M68"/>
+    <mergeCell ref="I69:M69"/>
+    <mergeCell ref="I63:M63"/>
+    <mergeCell ref="I64:M64"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A63:B63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
